--- a/target/test-classes/Excel/AddCustomer.xlsx
+++ b/target/test-classes/Excel/AddCustomer.xlsx
@@ -8,23 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sreyoshi\eclipse-workspace\RestAPI_RestAssured\Datadriven\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B56157B-BF95-45D9-882D-BDCBEE486E9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85223462-3C5E-4A89-8679-841BA92F24DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E0D34F5F-2D22-434D-BC4A-42C321BBF106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -412,7 +406,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
